--- a/TestData/LV_TMTT0035667_VerifyInternalDealTeamForAnalystRoleLimitForFVALOBOpportunityEngagement.xlsx
+++ b/TestData/LV_TMTT0035667_VerifyInternalDealTeamForAnalystRoleLimitForFVALOBOpportunityEngagement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF83111-D205-4A13-B30C-F6CBEDF6E022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040B6C90-8D64-4343-AC65-BBE8222AD8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{4F41EB50-8C78-4F9F-A1D4-8B783E020697}"/>
+    <workbookView xWindow="-23148" yWindow="708" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4F41EB50-8C78-4F9F-A1D4-8B783E020697}"/>
   </bookViews>
   <sheets>
     <sheet name="StandardUser" sheetId="2" r:id="rId1"/>
@@ -449,9 +449,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Liz Hedgcock</t>
-  </si>
-  <si>
     <t>CAO</t>
   </si>
   <si>
@@ -480,6 +477,9 @@
   </si>
   <si>
     <t>BUS - Business Services</t>
+  </si>
+  <si>
+    <t>Blaise Brunda</t>
   </si>
 </sst>
 </file>
@@ -859,7 +859,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,11 +933,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412C6B22-BBF2-46A2-ADA2-F9697D971635}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -952,21 +955,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
         <v>137</v>
-      </c>
-      <c r="B3" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -986,12 +989,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1014,17 +1017,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1180,7 @@
         <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>30</v>
@@ -1272,7 +1275,7 @@
         <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>30</v>
@@ -1432,7 +1435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E8CB76-FB8A-4028-8972-B88CE86EF1D8}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
